--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58.26</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>53.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>97.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.03</v>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="4">
@@ -1824,14 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1840,14 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.4</v>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1856,13 +1965,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.99</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -2201,14 +2372,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6">
@@ -2217,14 +2388,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="7">
@@ -2233,13 +2404,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,319 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9325</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4446</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+      <c r="D8" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -800,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9061</t>
+          <t>0.4542</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -868,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4663</t>
+          <t>0.1971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -906,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011723</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1000,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.49</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.4461</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1038,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4534</t>
+          <t>0.2028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1076,36 +902,226 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.1845</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1156,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1170,36 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4469</t>
+          <t>0.4421</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1208,36 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3113</t>
+          <t>0.4179</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1261,21 +1277,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1310,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0773</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1332,22 +1348,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1360,36 +1376,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1398,36 +1414,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1478,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1492,36 +1508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4421</t>
+          <t>0.4469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1530,36 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.10</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4179</t>
+          <t>0.3113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1583,21 +1599,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2400</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1616,26 +1632,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1624</t>
+          <t>0.0773</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1654,22 +1670,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1682,36 +1698,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1720,36 +1736,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,7 +1800,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1814,36 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>57.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4461</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1852,36 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2028</t>
+          <t>0.4534</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1890,226 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1845</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011723</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002860</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +1970,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2174,36 +2000,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>53.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4542</t>
+          <t>0.9061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2212,36 +2038,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.4663</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2250,36 +2076,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011723</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2293,144 +2119,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.46</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4542</t>
+          <t>0.3917</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>前海开源深圳特区精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.1424</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -737,27 +754,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>前海开源深圳特区精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,6 +787,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1122,328 +1309,6 @@
       </c>
       <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011722</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4421</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4179</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2400</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011723</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1508,36 +1373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4469</t>
+          <t>0.4421</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1546,36 +1411,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3113</t>
+          <t>0.4179</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1599,21 +1464,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1632,26 +1497,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0773</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1670,22 +1535,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1698,36 +1563,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1736,36 +1601,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,36 +1695,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.49</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.4469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1868,36 +1733,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4534</t>
+          <t>0.3113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1906,36 +1771,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2010,26 +2027,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>57.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9061</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2053,21 +2070,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4663</t>
+          <t>0.4534</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2091,17 +2108,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2114,6 +2131,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06099-招商证券.xlsx
+++ b/数据整理/stocks/港股/06099-招商证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3917</t>
+          <t>0.4230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -721,22 +1060,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1424</t>
+          <t>0.1593</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +1098,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -853,26 +1192,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4542</t>
+          <t>0.3917</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -886,27 +1225,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>前海开源深圳特区精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.1424</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -924,27 +1263,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+          <t>前海开源深圳特区精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -957,6 +1296,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1309,328 +1818,6 @@
       </c>
       <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011722</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4421</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4179</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2400</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011723</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源深圳特区精选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1852,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1695,36 +1882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.61</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4469</t>
+          <t>0.4421</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1733,36 +1920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011722</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3113</t>
+          <t>0.4179</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1786,21 +1973,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1819,26 +2006,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0773</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1857,22 +2044,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1885,36 +2072,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1923,36 +2110,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,36 +2204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.49</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8969</t>
+          <t>0.4469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2055,36 +2242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>011722</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4534</t>
+          <t>0.3113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2093,36 +2280,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2197,26 +2536,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>57.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9061</t>
+          <t>0.8969</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2240,21 +2579,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4663</t>
+          <t>0.4534</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2278,17 +2617,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2306,53 +2645,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2367,30 +2706,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>58.26</t>
+          <t>53.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9325</t>
+          <t>0.9061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2405,22 +2744,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4446</t>
+          <t>0.4663</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2428,7 +2767,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2443,181 +2782,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>